--- a/Importing_Data_in_R_1/summary.xlsx
+++ b/Importing_Data_in_R_1/summary.xlsx
@@ -8,13 +8,13 @@
     <sheet name="1960-1966" r:id="rId4" sheetId="1"/>
     <sheet name="1967-1974" r:id="rId5" sheetId="2"/>
     <sheet name="1975-2011" r:id="rId6" sheetId="3"/>
-    <sheet name="data_summary" r:id="rId7" sheetId="4"/>
+    <sheet name="summary" r:id="rId7" sheetId="4"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="230" count="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="230">
   <si>
     <t>country</t>
   </si>
@@ -786,19 +786,19 @@
     <xf applyAlignment="1" applyBorder="0" applyFill="0" applyFont="1" applyNumberFormat="0" applyProtection="0" fontId="0" numFmtId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyNumberFormat="true" applyFill="true">
+    <xf applyFill="true" applyNumberFormat="true" borderId="0" fillId="4" fontId="0" numFmtId="0">
       <alignment wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="true">
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="0">
       <alignment wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="true">
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="0">
       <alignment wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="true">
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="0">
       <alignment wrapText="true"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyNumberFormat="true">
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164">
       <alignment wrapText="true"/>
     </xf>
   </cellStyleXfs>
@@ -830,11 +830,11 @@
     <xf applyAlignment="1" applyBorder="0" applyFill="0" applyFont="1" applyNumberFormat="1" applyProtection="0" fontId="0" numFmtId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="4"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="5"/>
+    <xf borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="1"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="4"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="5"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -1926,15 +1926,15 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="10.625" defaultRowHeight="12.75" outlineLevelCol="0" outlineLevelRow="0"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="1" width="19.0469" collapsed="false"/>
-    <col min="2" max="2" customWidth="true" style="1" width="8.125" collapsed="false"/>
-    <col min="3" max="3" customWidth="true" style="1" width="8.125" collapsed="false"/>
-    <col min="4" max="4" customWidth="true" style="1" width="8.125" collapsed="false"/>
-    <col min="5" max="5" customWidth="true" style="1" width="8.125" collapsed="false"/>
-    <col min="6" max="6" customWidth="true" style="1" width="8.125" collapsed="false"/>
-    <col min="7" max="7" customWidth="true" style="1" width="8.125" collapsed="false"/>
-    <col min="8" max="8" customWidth="true" style="1" width="8.125" collapsed="false"/>
-    <col min="9" max="256" customWidth="true" style="1" width="10.625" collapsed="false"/>
+    <col min="1" max="1" customWidth="true" style="1" width="19.0469" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="1" width="8.125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="1" width="8.125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="1" width="8.125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="1" width="8.125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="1" width="8.125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="1" width="8.125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="1" width="8.125" collapsed="true"/>
+    <col min="9" max="256" customWidth="true" style="1" width="10.625" collapsed="true"/>
   </cols>
   <sheetData>
     <row customHeight="1" ht="14.45" r="1">
@@ -7392,16 +7392,16 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="6.625" defaultRowHeight="12.75" outlineLevelCol="0" outlineLevelRow="0"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="7" width="21.7266" collapsed="false"/>
-    <col min="2" max="2" customWidth="true" style="7" width="8.125" collapsed="false"/>
-    <col min="3" max="3" customWidth="true" style="7" width="8.125" collapsed="false"/>
-    <col min="4" max="4" customWidth="true" style="7" width="8.125" collapsed="false"/>
-    <col min="5" max="5" customWidth="true" style="7" width="8.125" collapsed="false"/>
-    <col min="6" max="6" customWidth="true" style="7" width="8.125" collapsed="false"/>
-    <col min="7" max="7" customWidth="true" style="7" width="8.125" collapsed="false"/>
-    <col min="8" max="8" customWidth="true" style="7" width="8.125" collapsed="false"/>
-    <col min="9" max="9" customWidth="true" style="7" width="8.125" collapsed="false"/>
-    <col min="10" max="256" customWidth="true" style="7" width="6.625" collapsed="false"/>
+    <col min="1" max="1" customWidth="true" style="7" width="21.7266" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="7" width="8.125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="7" width="8.125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="7" width="8.125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="7" width="8.125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="7" width="8.125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="7" width="8.125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="7" width="8.125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="7" width="8.125" collapsed="true"/>
+    <col min="10" max="256" customWidth="true" style="7" width="6.625" collapsed="true"/>
   </cols>
   <sheetData>
     <row customHeight="1" ht="18.8" r="1">
@@ -13511,45 +13511,45 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="6.625" defaultRowHeight="12.75" outlineLevelCol="0" outlineLevelRow="0"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="8" width="23.4375" collapsed="false"/>
-    <col min="2" max="2" customWidth="true" style="8" width="8.125" collapsed="false"/>
-    <col min="3" max="3" customWidth="true" style="8" width="8.125" collapsed="false"/>
-    <col min="4" max="4" customWidth="true" style="8" width="8.125" collapsed="false"/>
-    <col min="5" max="5" customWidth="true" style="8" width="8.125" collapsed="false"/>
-    <col min="6" max="6" customWidth="true" style="8" width="8.125" collapsed="false"/>
-    <col min="7" max="7" customWidth="true" style="8" width="8.125" collapsed="false"/>
-    <col min="8" max="8" customWidth="true" style="8" width="8.125" collapsed="false"/>
-    <col min="9" max="9" customWidth="true" style="8" width="8.125" collapsed="false"/>
-    <col min="10" max="10" customWidth="true" style="8" width="8.125" collapsed="false"/>
-    <col min="11" max="11" customWidth="true" style="8" width="8.125" collapsed="false"/>
-    <col min="12" max="12" customWidth="true" style="8" width="8.125" collapsed="false"/>
-    <col min="13" max="13" customWidth="true" style="8" width="8.125" collapsed="false"/>
-    <col min="14" max="14" customWidth="true" style="8" width="8.125" collapsed="false"/>
-    <col min="15" max="15" customWidth="true" style="8" width="8.125" collapsed="false"/>
-    <col min="16" max="16" customWidth="true" style="8" width="8.125" collapsed="false"/>
-    <col min="17" max="17" customWidth="true" style="8" width="8.125" collapsed="false"/>
-    <col min="18" max="18" customWidth="true" style="8" width="8.125" collapsed="false"/>
-    <col min="19" max="19" customWidth="true" style="8" width="8.125" collapsed="false"/>
-    <col min="20" max="20" customWidth="true" style="8" width="8.125" collapsed="false"/>
-    <col min="21" max="21" customWidth="true" style="8" width="8.125" collapsed="false"/>
-    <col min="22" max="22" customWidth="true" style="8" width="8.125" collapsed="false"/>
-    <col min="23" max="23" customWidth="true" style="8" width="8.125" collapsed="false"/>
-    <col min="24" max="24" customWidth="true" style="8" width="8.125" collapsed="false"/>
-    <col min="25" max="25" customWidth="true" style="8" width="8.125" collapsed="false"/>
-    <col min="26" max="26" customWidth="true" style="8" width="8.125" collapsed="false"/>
-    <col min="27" max="27" customWidth="true" style="8" width="8.125" collapsed="false"/>
-    <col min="28" max="28" customWidth="true" style="8" width="8.125" collapsed="false"/>
-    <col min="29" max="29" customWidth="true" style="8" width="8.125" collapsed="false"/>
-    <col min="30" max="30" customWidth="true" style="8" width="8.125" collapsed="false"/>
-    <col min="31" max="31" customWidth="true" style="8" width="8.125" collapsed="false"/>
-    <col min="32" max="32" customWidth="true" style="8" width="8.125" collapsed="false"/>
-    <col min="33" max="33" customWidth="true" style="8" width="8.125" collapsed="false"/>
-    <col min="34" max="34" customWidth="true" style="8" width="8.125" collapsed="false"/>
-    <col min="35" max="35" customWidth="true" style="8" width="8.125" collapsed="false"/>
-    <col min="36" max="36" customWidth="true" style="8" width="8.125" collapsed="false"/>
-    <col min="37" max="37" customWidth="true" style="8" width="8.125" collapsed="false"/>
-    <col min="38" max="38" customWidth="true" style="8" width="8.125" collapsed="false"/>
-    <col min="39" max="256" customWidth="true" style="8" width="6.625" collapsed="false"/>
+    <col min="1" max="1" customWidth="true" style="8" width="23.4375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="8" width="8.125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="8" width="8.125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="8" width="8.125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="8" width="8.125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="8" width="8.125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="8" width="8.125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="8" width="8.125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="8" width="8.125" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="8" width="8.125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="8" width="8.125" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" style="8" width="8.125" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" style="8" width="8.125" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" style="8" width="8.125" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" style="8" width="8.125" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" style="8" width="8.125" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" style="8" width="8.125" collapsed="true"/>
+    <col min="18" max="18" customWidth="true" style="8" width="8.125" collapsed="true"/>
+    <col min="19" max="19" customWidth="true" style="8" width="8.125" collapsed="true"/>
+    <col min="20" max="20" customWidth="true" style="8" width="8.125" collapsed="true"/>
+    <col min="21" max="21" customWidth="true" style="8" width="8.125" collapsed="true"/>
+    <col min="22" max="22" customWidth="true" style="8" width="8.125" collapsed="true"/>
+    <col min="23" max="23" customWidth="true" style="8" width="8.125" collapsed="true"/>
+    <col min="24" max="24" customWidth="true" style="8" width="8.125" collapsed="true"/>
+    <col min="25" max="25" customWidth="true" style="8" width="8.125" collapsed="true"/>
+    <col min="26" max="26" customWidth="true" style="8" width="8.125" collapsed="true"/>
+    <col min="27" max="27" customWidth="true" style="8" width="8.125" collapsed="true"/>
+    <col min="28" max="28" customWidth="true" style="8" width="8.125" collapsed="true"/>
+    <col min="29" max="29" customWidth="true" style="8" width="8.125" collapsed="true"/>
+    <col min="30" max="30" customWidth="true" style="8" width="8.125" collapsed="true"/>
+    <col min="31" max="31" customWidth="true" style="8" width="8.125" collapsed="true"/>
+    <col min="32" max="32" customWidth="true" style="8" width="8.125" collapsed="true"/>
+    <col min="33" max="33" customWidth="true" style="8" width="8.125" collapsed="true"/>
+    <col min="34" max="34" customWidth="true" style="8" width="8.125" collapsed="true"/>
+    <col min="35" max="35" customWidth="true" style="8" width="8.125" collapsed="true"/>
+    <col min="36" max="36" customWidth="true" style="8" width="8.125" collapsed="true"/>
+    <col min="37" max="37" customWidth="true" style="8" width="8.125" collapsed="true"/>
+    <col min="38" max="38" customWidth="true" style="8" width="8.125" collapsed="true"/>
+    <col min="39" max="256" customWidth="true" style="8" width="6.625" collapsed="true"/>
   </cols>
   <sheetData>
     <row customHeight="1" ht="18.8" r="1">
@@ -37924,46 +37924,46 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="9">
+      <c r="A1" s="9" t="s">
         <v>224</v>
       </c>
-      <c r="B1" t="s" s="9">
+      <c r="B1" s="9" t="s">
         <v>225</v>
       </c>
-      <c r="C1" t="s" s="9">
+      <c r="C1" s="9" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s" s="10">
+      <c r="A2" s="10" t="s">
         <v>227</v>
       </c>
-      <c r="B2" t="n" s="11">
+      <c r="B2" s="11" t="n">
         <v>209.0</v>
       </c>
-      <c r="C2" t="n" s="11">
+      <c r="C2" s="11" t="n">
         <v>8.0</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="10">
+      <c r="A3" s="10" t="s">
         <v>228</v>
       </c>
-      <c r="B3" t="n" s="11">
+      <c r="B3" s="11" t="n">
         <v>209.0</v>
       </c>
-      <c r="C3" t="n" s="11">
+      <c r="C3" s="11" t="n">
         <v>9.0</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s" s="10">
+      <c r="A4" s="10" t="s">
         <v>229</v>
       </c>
-      <c r="B4" t="n" s="11">
+      <c r="B4" s="11" t="n">
         <v>209.0</v>
       </c>
-      <c r="C4" t="n" s="11">
+      <c r="C4" s="11" t="n">
         <v>38.0</v>
       </c>
     </row>
